--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1980" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="13780" yWindow="940" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -160,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +186,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,11 +208,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -215,6 +227,7 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -225,6 +238,7 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -502,7 +516,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="A15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,44 +551,44 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -582,7 +596,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2.5</v>
@@ -592,77 +606,77 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -670,7 +684,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2.5</v>
@@ -681,13 +695,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,6 +761,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <sortState ref="A2:D20">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="940" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
@@ -17,20 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +116,10 @@
   </si>
   <si>
     <t>Level-a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c2-2-0920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,8 +185,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,8 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -228,17 +230,22 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -293,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -328,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -505,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,19 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:C17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -572,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -583,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -605,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -627,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -638,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -649,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -682,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -693,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -704,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -718,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -732,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -746,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -758,6 +765,17 @@
       </c>
       <c r="D20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -767,6 +785,11 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="940" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +125,18 @@
   </si>
   <si>
     <t>Level-c2-2-0920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c3-3-0920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c4-4-0902</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,8 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -218,7 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -232,20 +252,21 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -512,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,19 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -568,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -579,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -590,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -612,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -667,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -678,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -689,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -700,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -711,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -725,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -739,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -753,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -767,8 +788,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
@@ -776,6 +797,39 @@
       </c>
       <c r="C21">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -786,10 +840,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="540" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,11 +14,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -136,7 +131,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-c4-4-0902</t>
+    <t>Level-c3-4-0920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -253,20 +247,21 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -533,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,16 +539,16 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -578,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -600,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -611,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -633,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -644,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -677,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -710,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -721,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -732,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -746,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -760,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -774,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -788,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -799,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -810,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -821,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -840,5 +835,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="540" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="1360" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1360" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +137,14 @@
   </si>
   <si>
     <t>Level-c3-4-0920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c3-3-0922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c3-2-0922</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -247,21 +261,20 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -528,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,19 +549,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -584,64 +597,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2.5</v>
@@ -650,9 +663,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -661,87 +674,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>21</v>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>2.5</v>
       </c>
       <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -755,12 +768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -769,54 +782,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>18</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>2.5</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -827,18 +840,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D25">
+      <sortCondition ref="B1:B25"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:D20">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,22 @@
   </si>
   <si>
     <t>Level-c3-2-0922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可以简单一些，开场选择过多 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c4-3-0925</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -754,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -768,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -782,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -793,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -804,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -815,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -829,18 +845,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>4</v>
+      <c r="B24" t="s">
+        <v>29</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -851,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -860,6 +879,17 @@
       </c>
       <c r="C26">
         <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,26 @@
   </si>
   <si>
     <t>Level-c4-3-0925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c4-3.5-1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c4-4.5-1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct3-2-1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct3-2.5-1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-4-1007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,9 +277,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,51 +658,51 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -692,7 +713,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -702,58 +723,55 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2.5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -761,141 +779,208 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
+      <c r="A23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>11</v>
+      <c r="A25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
-        <v>4</v>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3.5</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>4.5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
-    <sortState ref="A2:D25">
-      <sortCondition ref="B1:B25"/>
+    <sortState ref="A2:D31">
+      <sortCondition ref="C1:C31"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:D20">

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>Level-ct4-4-1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-4-1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,8 +250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -298,6 +304,7 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -312,6 +319,7 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -586,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,6 +982,20 @@
         <v>4</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
     </row>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>Level-ct4-4-1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-3-1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-3-1013-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,16 +610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -997,6 +1014,40 @@
       </c>
       <c r="D33">
         <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>爽关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-4-1122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,6 +1052,20 @@
       </c>
       <c r="E35" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="14600" yWindow="540" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,31 +180,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Level-ct4-4-1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4-3-1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Level-ct4-4-1007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-ct4-4-1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有一个陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-ct4-3-1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level-ct4-3-1013-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爽关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level-ct4-4-1122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4a-3.5-1125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层双宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4a-5-1125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,8 +282,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -325,6 +345,10 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -340,6 +364,10 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -614,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,8 +1021,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
+      <c r="A32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1008,54 +1036,54 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>38</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36">
@@ -1066,6 +1094,40 @@
       </c>
       <c r="D36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>3.5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="540" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,16 @@
   </si>
   <si>
     <t>Level-ct4a-5-1125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-ct4a-4-1201</t>
+  </si>
+  <si>
+    <t>Level-ct4a-4-1201-2</t>
+  </si>
+  <si>
+    <t>难关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,8 +292,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -349,6 +363,8 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -368,6 +384,8 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -642,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1082,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1096,8 +1114,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37">
@@ -1113,8 +1131,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
@@ -1128,6 +1146,43 @@
       </c>
       <c r="E38" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="14600" yWindow="540" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,16 +217,6 @@
   </si>
   <si>
     <t>Level-ct4a-5-1125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-ct4a-4-1201</t>
-  </si>
-  <si>
-    <t>Level-ct4a-4-1201-2</t>
-  </si>
-  <si>
-    <t>难关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,12 +282,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="39">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -363,8 +349,6 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -384,8 +368,6 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -660,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1069,7 +1051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1083,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1100,7 +1082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1114,8 +1096,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37">
@@ -1131,8 +1113,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B38">
@@ -1146,43 +1128,6 @@
       </c>
       <c r="E38" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -220,13 +220,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Level-ct4a-4-1201-2</t>
+  </si>
+  <si>
+    <t>难关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Level-ct4a-4-1201</t>
-  </si>
-  <si>
-    <t>Level-ct4a-4-1201-2</t>
-  </si>
-  <si>
-    <t>难关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,8 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -365,6 +370,8 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -386,6 +393,8 @@
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -662,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,8 +1158,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
+      <c r="A39" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1166,8 +1175,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
+      <c r="A40" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1182,7 +1191,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,34 +707,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -742,10 +720,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -753,10 +731,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -764,32 +742,32 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -797,18 +775,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2.5</v>
@@ -819,10 +797,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -830,10 +808,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -841,10 +819,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -852,10 +830,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -863,10 +841,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -874,57 +852,57 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>2.5</v>
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
       <c r="C18">
         <v>3</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2.5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2.5</v>
@@ -932,41 +910,35 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
+      <c r="A24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -974,74 +946,80 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
+      <c r="A26" t="s">
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>31</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>3.5</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>4.5</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1049,72 +1027,63 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>3.5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>4.5</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1125,10 +1094,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1137,12 +1106,12 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1152,17 +1121,14 @@
       </c>
       <c r="D38">
         <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1176,10 +1142,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1190,7 +1156,41 @@
       <c r="E40" t="s">
         <v>45</v>
       </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
         <v>48</v>
       </c>
     </row>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="16700" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,66 @@
   </si>
   <si>
     <t>Level-ct4a-4-1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c1-t1-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关教学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c1-t2-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关教学2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关教学0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c1-t0-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关教学3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关教学4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c2-t10-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层同色教学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c2-2-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层同色教学2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同色双层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-c3-2-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层同色，开局陷阱比较多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +329,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,13 +408,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="67">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -372,6 +460,16 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -395,6 +493,16 @@
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -669,20 +777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -707,86 +815,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>2.5</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2.5</v>
@@ -795,45 +931,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -841,10 +980,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -852,57 +991,57 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
       </c>
       <c r="C18">
         <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>2.5</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B22">
         <v>2.5</v>
@@ -910,35 +1049,41 @@
       <c r="C22">
         <v>4</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
+      <c r="A24" t="s">
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -946,30 +1091,27 @@
       <c r="C25">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>16</v>
+      <c r="A26" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>4</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -979,47 +1121,44 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
+      <c r="A28" t="s">
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>11</v>
+      <c r="A30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>4.5</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1027,32 +1166,41 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
+      <c r="A33" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
+      <c r="A34" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1062,11 +1210,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
+      <c r="A35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1075,15 +1223,15 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
+      <c r="A36" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1094,10 +1242,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1106,12 +1254,12 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1121,14 +1269,17 @@
       </c>
       <c r="D38">
         <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1142,10 +1293,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1156,42 +1307,92 @@
       <c r="E40" t="s">
         <v>45</v>
       </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>3.5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,11 +283,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>双层同色，开局陷阱比较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Level-c3-2-1216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双层同色，开局陷阱比较多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,8 +360,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -470,6 +476,9 @@
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -503,6 +512,9 @@
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -779,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,6 +931,9 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1383,7 +1398,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>3.5</v>
@@ -1392,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,94 @@
   </si>
   <si>
     <t>Level-c3-2-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百搭教学关1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百搭教学关2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百搭教学关3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层百搭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层百搭 选择多，有难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层百搭 流程太短 不太好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0'14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2'20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层百搭,百搭逆向思维，不过还存在bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6'00 未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,8 +448,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="85">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -479,6 +579,12 @@
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -515,6 +621,12 @@
     <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -789,17 +901,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1193,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1224,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1255,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1272,7 +1384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1340,7 +1452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -1368,7 +1480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -1396,7 +1508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
@@ -1408,6 +1520,139 @@
       </c>
       <c r="E46" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <v>2.5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <v>2.5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>3.5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>4.5</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,46 @@
   </si>
   <si>
     <t>6'00 未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧关 消除两个白块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色宝箱关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四色宝箱关，开局有一处陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-m13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四色宝箱关+百搭，远程消除宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +488,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="93">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -585,6 +633,10 @@
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -627,6 +679,10 @@
     <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -901,10 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,6 +1710,76 @@
       </c>
       <c r="G54" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="97">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -637,6 +641,8 @@
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -683,6 +689,8 @@
     <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -960,8 +968,8 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sty/Documents/unity/BlockDisappear/BlockDisappear/docments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitianyun/Documents/BlockDisappear/BlockDisappear/docments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306C187-5511-8345-885C-5D85D0EEE39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="30720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,14 +417,140 @@
   </si>
   <si>
     <t>四色宝箱关+百搭，远程消除宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a1</t>
+  </si>
+  <si>
+    <t>Level-move-a2</t>
+  </si>
+  <si>
+    <t>Level-move5</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <r>
+      <t>move+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>Moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move 基础教学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move 左右移动教学2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">move </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关卡教学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双块移动1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双块移动2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a6</t>
+  </si>
+  <si>
+    <t>双块移动3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵横移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level-move-a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转角移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le_move-a10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转角移动 一直线+一转角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,6 +591,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -587,11 +739,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -697,6 +853,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -964,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47:B59"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1790,13 +1949,184 @@
         <v>96</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="4">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D31">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
       <sortCondition ref="C1:C31"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:D20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BlockDisappear/docments/levels-difficult.xlsx
+++ b/BlockDisappear/docments/levels-difficult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitianyun/Documents/BlockDisappear/BlockDisappear/docments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306C187-5511-8345-885C-5D85D0EEE39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D4600E-1A51-3748-B01A-E650258CE28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="30720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="1440" windowWidth="30720" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -420,15 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a1</t>
-  </si>
-  <si>
-    <t>Level-move-a2</t>
-  </si>
-  <si>
-    <t>Level-move5</t>
-  </si>
-  <si>
     <t>4T</t>
   </si>
   <si>
@@ -451,14 +442,6 @@
   </si>
   <si>
     <t>Moving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,45 +478,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双块移动1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双块移动2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a6</t>
-  </si>
-  <si>
     <t>双块移动3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纵横移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level-move-a8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level-move-a9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转角移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +503,50 @@
   </si>
   <si>
     <t>转角移动 一直线+一转角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_move-a9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,8 +1131,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1951,12 +1955,12 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B61" s="4">
         <v>3</v>
@@ -1965,15 +1969,15 @@
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -1985,24 +1989,24 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B64" s="4">
         <v>2</v>
@@ -2011,12 +2015,12 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B65" s="4">
         <v>2</v>
@@ -2025,12 +2029,12 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B66" s="4">
         <v>2</v>
@@ -2039,12 +2043,12 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B67" s="4">
         <v>2</v>
@@ -2053,12 +2057,12 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
@@ -2067,23 +2071,23 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="4">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B70" s="4">
         <v>2</v>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
@@ -2103,12 +2107,12 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
@@ -2117,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
